--- a/reparo_iphones.xlsx
+++ b/reparo_iphones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pho_0\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/253085294ad13924/Área de Trabalho/IdeiasParaFazerEmPython/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812DDCFB-B61C-4D2B-9BC4-DC0559576629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{812DDCFB-B61C-4D2B-9BC4-DC0559576629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44F42008-1AE1-4D94-A4B4-BA8DF0B129AE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,9 +435,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -465,7 +468,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -479,7 +482,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -493,7 +496,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -507,7 +510,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -521,7 +524,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -535,7 +538,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -549,7 +552,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -563,7 +566,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -577,7 +580,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
